--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/companyImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/companyImportSchema_pl.xlsx
@@ -241,7 +241,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Adress WWW</t>
+    <t>Adres WWW</t>
   </si>
   <si>
     <t>Osoba kontaktowa</t>
